--- a/assets/findings/2024-02-12-findings.xlsx
+++ b/assets/findings/2024-02-12-findings.xlsx
@@ -639,8 +639,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -672,8 +674,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -738,8 +742,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -771,8 +777,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -837,8 +845,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -870,8 +880,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -936,8 +948,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -969,8 +983,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1035,8 +1051,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1068,8 +1086,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1134,8 +1154,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1167,8 +1189,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1233,8 +1257,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1266,8 +1292,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1332,8 +1360,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1365,8 +1395,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1431,8 +1463,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1464,8 +1498,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1530,8 +1566,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1563,8 +1601,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1629,8 +1669,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1662,8 +1704,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1728,8 +1772,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1761,8 +1807,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1827,8 +1875,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1860,8 +1910,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1926,8 +1978,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1959,8 +2013,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2025,8 +2081,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2058,8 +2116,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2124,8 +2184,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -2157,8 +2219,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -2223,8 +2287,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2256,8 +2322,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2322,8 +2390,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2355,8 +2425,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2421,8 +2493,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2454,8 +2528,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2520,8 +2596,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2553,8 +2631,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2619,8 +2699,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2652,8 +2734,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2718,8 +2802,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2751,8 +2837,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2817,8 +2905,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2850,8 +2940,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2916,8 +3008,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2949,8 +3043,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -3015,8 +3111,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -3048,8 +3146,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -3114,8 +3214,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -3147,8 +3249,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -3213,8 +3317,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3246,8 +3352,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -3312,8 +3420,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3345,8 +3455,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -3411,8 +3523,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3444,8 +3558,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3510,8 +3626,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3543,8 +3661,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3609,8 +3729,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3642,8 +3764,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3927,8 +4051,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>6013006</v>
@@ -3963,8 +4089,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4029,8 +4157,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>6013006</v>
@@ -4065,8 +4195,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4131,8 +4263,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>6013006</v>
@@ -4167,8 +4301,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4396,8 +4532,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4429,8 +4567,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4495,8 +4635,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4528,8 +4670,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4594,8 +4738,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -4627,8 +4773,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4693,8 +4841,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -4726,8 +4876,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -4792,8 +4944,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -4825,8 +4979,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -4891,8 +5047,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -4924,8 +5082,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -5159,8 +5319,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -5192,8 +5354,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -5258,8 +5422,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -5291,8 +5457,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -5357,8 +5525,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -5390,8 +5560,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -5456,8 +5628,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -5489,8 +5663,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -5720,8 +5896,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -5753,8 +5931,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -5819,8 +5999,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -5852,8 +6034,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -5918,8 +6102,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -5951,8 +6137,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -6017,8 +6205,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -6050,8 +6240,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -6116,8 +6308,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -6149,8 +6343,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -6215,8 +6411,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -6248,8 +6446,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -6314,8 +6514,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -6347,8 +6549,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -6413,8 +6617,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -6446,8 +6652,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -6512,8 +6720,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -6545,8 +6755,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -6611,8 +6823,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -6644,8 +6858,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -6710,8 +6926,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -6743,8 +6961,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -6988,8 +7208,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -7021,8 +7243,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -7087,8 +7311,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -7120,8 +7346,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -7186,8 +7414,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -7219,8 +7449,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7285,8 +7517,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -7318,8 +7552,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -7384,8 +7620,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -7417,8 +7655,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -7483,8 +7723,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -7516,8 +7758,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -7582,8 +7826,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -7615,8 +7861,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -7681,8 +7929,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -7714,8 +7964,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -7780,8 +8032,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -7813,8 +8067,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -7879,8 +8135,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -7912,8 +8170,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -7978,8 +8238,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -8011,8 +8273,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -8077,8 +8341,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -8110,8 +8376,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -8176,8 +8444,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -8209,8 +8479,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -8275,8 +8547,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -8308,8 +8582,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -8374,8 +8650,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -8407,8 +8685,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -8473,8 +8753,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -8506,8 +8788,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -8572,8 +8856,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -8605,8 +8891,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -8671,8 +8959,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -8704,8 +8994,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -8963,8 +9255,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -8996,8 +9290,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -9221,8 +9517,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>739970</v>
@@ -9257,8 +9555,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -9323,8 +9623,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -9356,8 +9658,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -9422,8 +9726,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -9455,8 +9761,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -9521,8 +9829,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -9554,8 +9864,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -9785,8 +10097,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -9818,8 +10132,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -10043,8 +10359,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -10076,8 +10394,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -10142,8 +10462,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -10175,8 +10497,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -10241,8 +10565,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -10274,8 +10600,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -10340,8 +10668,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -10373,8 +10703,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -10439,8 +10771,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -10472,8 +10806,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -10538,8 +10874,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -10571,8 +10909,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -10637,8 +10977,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -10670,8 +11012,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -10736,8 +11080,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -10769,8 +11115,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -10835,8 +11183,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -10868,8 +11218,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -10934,8 +11286,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -10967,8 +11321,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -11033,8 +11389,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -11066,8 +11424,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -11132,8 +11492,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -11165,8 +11527,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -11231,8 +11595,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -11264,8 +11630,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -11330,8 +11698,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -11363,8 +11733,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -11429,8 +11801,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -11462,8 +11836,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -11528,8 +11904,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -11561,8 +11939,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -11627,8 +12007,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -11660,8 +12042,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -11726,8 +12110,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -11759,8 +12145,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -11825,8 +12213,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -11858,8 +12248,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -11924,8 +12316,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -11957,8 +12351,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -12023,8 +12419,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -12056,8 +12454,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -12122,8 +12522,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -12155,8 +12557,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -12221,8 +12625,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -12254,8 +12660,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -12320,8 +12728,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -12353,8 +12763,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -12419,8 +12831,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -12452,8 +12866,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -12518,8 +12934,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -12551,8 +12969,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -12617,8 +13037,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -12650,8 +13072,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -12716,8 +13140,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -12749,8 +13175,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -12815,8 +13243,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -12848,8 +13278,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -12914,8 +13346,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -12947,8 +13381,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -13013,8 +13449,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -13046,8 +13484,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -13112,8 +13552,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -13145,8 +13587,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -13211,8 +13655,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -13244,8 +13690,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -13310,8 +13758,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -13343,8 +13793,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -13409,8 +13861,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -13442,8 +13896,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -13508,8 +13964,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -13541,8 +13999,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -13607,8 +14067,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -13640,8 +14102,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -13706,8 +14170,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -13739,8 +14205,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -13805,8 +14273,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -13838,8 +14308,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -13904,8 +14376,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -13937,8 +14411,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -14003,8 +14479,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -14036,8 +14514,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -14102,8 +14582,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -14135,8 +14617,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -14201,8 +14685,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -14234,8 +14720,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -14300,8 +14788,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -14333,8 +14823,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>1</v>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -14399,8 +14891,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -14432,8 +14926,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -14498,8 +14994,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -14531,8 +15029,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -14597,8 +15097,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -14630,8 +15132,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>1</v>
+      <c r="U48" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -14696,8 +15200,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -14729,8 +15235,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>1</v>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -14795,8 +15303,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -14828,8 +15338,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>1</v>
+      <c r="U50" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -14894,8 +15406,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -14927,8 +15441,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>1</v>
+      <c r="U51" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -14993,8 +15509,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -15026,8 +15544,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>1</v>
+      <c r="U52" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -15092,8 +15612,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -15125,8 +15647,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>1</v>
+      <c r="U53" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -15191,8 +15715,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -15224,8 +15750,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>1</v>
+      <c r="U54" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -15290,8 +15818,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -15323,8 +15853,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>1</v>
+      <c r="U55" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -15389,8 +15921,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -15422,8 +15956,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>1</v>
+      <c r="U56" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -15488,8 +16024,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -15521,8 +16059,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>1</v>
+      <c r="U57" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -15587,8 +16127,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -15620,8 +16162,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>1</v>
+      <c r="U58" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -15686,8 +16230,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -15719,8 +16265,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>1</v>
+      <c r="U59" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -15785,8 +16333,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -15818,8 +16368,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -15884,8 +16436,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -15917,8 +16471,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>0</v>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -15983,8 +16539,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -16016,8 +16574,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>0</v>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -16082,8 +16642,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -16115,8 +16677,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -16181,8 +16745,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -16214,8 +16780,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>0</v>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -16280,8 +16848,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -16313,8 +16883,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>0</v>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -16379,8 +16951,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -16412,8 +16986,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -16478,8 +17054,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -16511,8 +17089,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>0</v>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -16577,8 +17157,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -16610,8 +17192,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>0</v>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -16676,8 +17260,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -16709,8 +17295,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>0</v>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -16775,8 +17363,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -16808,8 +17398,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>0</v>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -16874,8 +17466,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" s="1" t="inlineStr">
         <is>
@@ -16907,8 +17501,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>1</v>
+      <c r="U71" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -16973,8 +17569,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" s="1" t="inlineStr">
         <is>
@@ -17006,8 +17604,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>1</v>
+      <c r="U72" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -17072,8 +17672,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" s="1" t="inlineStr">
         <is>
@@ -17105,8 +17707,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>1</v>
+      <c r="U73" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -17171,8 +17775,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -17204,8 +17810,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>0</v>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -17270,8 +17878,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -17303,8 +17913,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>0</v>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -17369,8 +17981,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -17402,8 +18016,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>0</v>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -17468,8 +18084,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -17501,8 +18119,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>0</v>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -17567,8 +18187,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M78" t="b">
-        <v>0</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -17600,8 +18222,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U78" t="b">
-        <v>0</v>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -17666,8 +18290,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -17699,8 +18325,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U79" t="b">
-        <v>0</v>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -17765,8 +18393,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -17798,8 +18428,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U80" t="b">
-        <v>0</v>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -17864,8 +18496,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M81" t="b">
-        <v>0</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -17897,8 +18531,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U81" t="b">
-        <v>0</v>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -17963,8 +18599,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M82" t="b">
-        <v>0</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -17996,8 +18634,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U82" t="b">
-        <v>0</v>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -18062,8 +18702,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M83" t="b">
-        <v>0</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -18095,8 +18737,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U83" t="b">
-        <v>0</v>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -18482,8 +19126,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -18515,8 +19161,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -18581,8 +19229,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -18614,8 +19264,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -18680,8 +19332,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -18713,8 +19367,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -18779,8 +19435,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -18812,8 +19470,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -18878,8 +19538,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -18911,8 +19573,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -18977,8 +19641,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -19010,8 +19676,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -19076,8 +19744,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -19109,8 +19779,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -19175,8 +19847,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -19208,8 +19882,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -19274,8 +19950,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -19307,8 +19985,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -19373,8 +20053,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -19406,8 +20088,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -19472,8 +20156,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -19505,8 +20191,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -19750,8 +20438,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -19783,8 +20473,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -19849,8 +20541,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -19882,8 +20576,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -19948,8 +20644,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -19981,8 +20679,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -20047,8 +20747,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -20080,8 +20782,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -20311,8 +21015,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -20344,8 +21050,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -20410,8 +21118,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -20443,8 +21153,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -20509,8 +21221,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -20542,8 +21256,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -20608,8 +21324,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -20641,8 +21359,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -20707,8 +21427,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -20740,8 +21462,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -20806,8 +21530,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -20839,8 +21565,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -20905,8 +21633,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -20938,8 +21668,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -21004,8 +21736,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -21037,8 +21771,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -21103,8 +21839,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -21136,8 +21874,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -21202,8 +21942,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -21235,8 +21977,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -21301,8 +22045,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -21334,8 +22080,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -21400,8 +22148,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -21433,8 +22183,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -21499,8 +22251,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -21532,8 +22286,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -21598,8 +22354,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -21631,8 +22389,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -21697,8 +22457,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -21730,8 +22492,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -21796,8 +22560,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -21829,8 +22595,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -21895,8 +22663,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -21928,8 +22698,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -21994,8 +22766,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -22027,8 +22801,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -22286,8 +23062,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -22319,8 +23097,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -22385,8 +23165,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -22418,8 +23200,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -22484,8 +23268,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -22517,8 +23303,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -22583,8 +23371,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -22616,8 +23406,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -22682,8 +23474,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -22715,8 +23509,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -22781,8 +23577,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -22814,8 +23612,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -22880,8 +23680,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -22913,8 +23715,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -22979,8 +23783,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -23012,8 +23818,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -23251,8 +24059,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>739970</v>
@@ -23287,8 +24097,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -23353,8 +24165,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -23386,8 +24200,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -23452,8 +24268,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -23485,8 +24303,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -23551,8 +24371,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -23584,8 +24406,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -23815,8 +24639,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -23848,8 +24674,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -24073,8 +24901,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -24106,8 +24936,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -24331,8 +25163,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -24364,8 +25198,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -24430,8 +25266,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -24463,8 +25301,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -24529,8 +25369,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -24562,8 +25404,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -24628,8 +25472,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -24661,8 +25507,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -24727,8 +25575,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -24760,8 +25610,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -24826,8 +25678,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -24859,8 +25713,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -24925,8 +25781,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -24958,8 +25816,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -25024,8 +25884,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -25057,8 +25919,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -25123,8 +25987,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -25156,8 +26022,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -25222,8 +26090,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -25255,8 +26125,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -25321,8 +26193,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -25354,8 +26228,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -25420,8 +26296,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -25453,8 +26331,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -25519,8 +26399,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -25552,8 +26434,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -25618,8 +26502,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -25651,8 +26537,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -25717,8 +26605,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -25750,8 +26640,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -25816,8 +26708,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -25849,8 +26743,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -25915,8 +26811,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -25948,8 +26846,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -26014,8 +26914,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -26047,8 +26949,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -26113,8 +27017,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -26146,8 +27052,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -26212,8 +27120,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -26245,8 +27155,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -26311,8 +27223,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -26344,8 +27258,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -26410,8 +27326,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -26443,8 +27361,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -26509,8 +27429,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -26542,8 +27464,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -26608,8 +27532,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -26641,8 +27567,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -26707,8 +27635,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -26740,8 +27670,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -26806,8 +27738,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -26839,8 +27773,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -26905,8 +27841,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -26938,8 +27876,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -27004,8 +27944,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -27037,8 +27979,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -27103,8 +28047,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -27136,8 +28082,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -27202,8 +28150,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -27235,8 +28185,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -27301,8 +28253,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -27334,8 +28288,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -27400,8 +28356,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -27433,8 +28391,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -27499,8 +28459,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -27532,8 +28494,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -27598,8 +28562,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -27631,8 +28597,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -27697,8 +28665,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -27730,8 +28700,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -27796,8 +28768,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -27829,8 +28803,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
+      <c r="U37" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -27895,8 +28871,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -27928,8 +28906,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
+      <c r="U38" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -27994,8 +28974,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -28027,8 +29009,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -28093,8 +29077,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -28126,8 +29112,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -28192,8 +29180,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -28225,8 +29215,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -28291,8 +29283,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -28324,8 +29318,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -28390,8 +29386,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -28423,8 +29421,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -28489,8 +29489,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -28522,8 +29524,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -28588,8 +29592,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -28621,8 +29627,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>1</v>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -28687,8 +29695,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -28720,8 +29730,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>1</v>
+      <c r="U46" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -28786,8 +29798,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -28819,8 +29833,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>1</v>
+      <c r="U47" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -28885,8 +29901,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -28918,8 +29936,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>1</v>
+      <c r="U48" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -28984,8 +30004,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -29017,8 +30039,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -29083,8 +30107,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -29116,8 +30142,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -29182,8 +30210,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -29215,8 +30245,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -29281,8 +30313,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -29314,8 +30348,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -29380,8 +30416,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -29413,8 +30451,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -29479,8 +30519,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -29512,8 +30554,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -29578,8 +30622,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -29611,8 +30657,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -29677,8 +30725,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -29710,8 +30760,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -29776,8 +30828,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -29809,8 +30863,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -29875,8 +30931,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -29908,8 +30966,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -29974,8 +31034,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -30007,8 +31069,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -30073,8 +31137,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" s="1" t="inlineStr">
         <is>
@@ -30106,8 +31172,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>1</v>
+      <c r="U60" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -30172,8 +31240,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" s="1" t="inlineStr">
         <is>
@@ -30205,8 +31275,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>1</v>
+      <c r="U61" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -30271,8 +31343,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" s="1" t="inlineStr">
         <is>
@@ -30304,8 +31378,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>1</v>
+      <c r="U62" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -30649,8 +31725,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -30682,8 +31760,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -30748,8 +31828,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>6013006</v>
@@ -30784,8 +31866,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -30850,8 +31934,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>6013006</v>
@@ -30886,8 +31972,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -30952,8 +32040,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>6013006</v>
@@ -30988,8 +32078,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -31054,8 +32146,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -31087,8 +32181,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -31153,8 +32249,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -31186,8 +32284,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -31252,8 +32352,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -31285,8 +32387,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -31351,8 +32455,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -31384,8 +32490,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -31450,8 +32558,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -31483,8 +32593,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -31549,8 +32661,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -31582,8 +32696,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -31648,8 +32764,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -31681,8 +32799,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -31747,8 +32867,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -31780,8 +32902,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -31846,8 +32970,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -31879,8 +33005,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
